--- a/pre/shok/slimjet/ru/ru.xlsx
+++ b/pre/shok/slimjet/ru/ru.xlsx
@@ -376,7 +376,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A132"/>
+  <dimension ref="A1:A130"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -949,102 +949,92 @@
     </row>
     <row r="114">
       <c r="A114" t="str">
-        <v>Автор: Ирина</v>
+        <v>Автор: Никита</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="str">
-        <v xml:space="preserve">Принимала таблетки 10 дней, вес стал уходить, а когда отменила прием, то опять стала поправляться. Почему? </v>
+        <v xml:space="preserve">Если это панацея, то почему все вокруг с лишним весом? </v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="str">
-        <v>Автор: Никита</v>
+        <v>Автор: Администратор</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="str">
-        <v xml:space="preserve">Если это панацея, то почему все вокруг с лишним весом? </v>
+        <v xml:space="preserve">Добрый день, Никита. Присмотритесь внимательнее - людей с нормальным весом больше. А те, кто имел лишний вес, после приема таблеток </v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="str">
-        <v>Автор: Администратор</v>
+        <v>Slimjet</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="str">
-        <v xml:space="preserve">Добрый день, Никита. Присмотритесь внимательнее - людей с нормальным весом больше. А те, кто имел лишний вес, после приема таблеток </v>
+        <v xml:space="preserve">пополнили их ряды. Но лучшее лекарство от сомнений - попробовать на своем опыте прием таблеток </v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="str">
-        <v>Slimjet</v>
+        <v>Slimjet.</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="str">
-        <v xml:space="preserve">пополнили их ряды. Но лучшее лекарство от сомнений - попробовать на своем опыте прием таблеток </v>
+        <v>Не можешь похудеть?</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="str">
-        <v>Slimjet.</v>
+        <v>Рекомендовано</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="str">
-        <v>Не можешь похудеть?</v>
+        <v>13 актеров, которых даже преданные фанаты могли не узнать в их первых фильмах</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="str">
-        <v>Рекомендовано</v>
+        <v>1 час назад</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="str">
-        <v>13 актеров, которых даже преданные фанаты могли не узнать в их первых фильмах</v>
+        <v>Люди рассказали о том, какие странные бытовые заморочки им прививали с самого детства</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="str">
-        <v>1 час назад</v>
+        <v>10 минут назад</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="str">
-        <v>Люди рассказали о том, какие странные бытовые заморочки им прививали с самого детства</v>
+        <v>12 психологических триллеров, которые нельзя ни забыть, ни пропустить</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="str">
-        <v>10 минут назад</v>
+        <v>50 минут назад</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="str">
-        <v>12 психологических триллеров, которые нельзя ни забыть, ни пропустить</v>
+        <v>Ваше имя</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="str">
-        <v>50 минут назад</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="str">
-        <v>Ваше имя</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="str">
         <v>Текст</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:A132"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:A130"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -1254,8 +1244,8 @@
       &lt;div class="comments"&gt;
         &lt;h2&gt;&lt;span data-translate="91"&gt;Комментарии&lt;/span&gt;&lt;/h2&gt;
         &lt;div class="comments__form"&gt;
-          &lt;input type="text" placeholder="Ваше имя" data-placeholder="131" data-placeholder-translate="Ваше имя"&gt;
-          &lt;textarea name id cols="30" rows="6" placeholder="Текст" data-placeholder="132" data-placeholder-translate="Текст"&gt;&lt;/textarea&gt;
+          &lt;input type="text" placeholder="Ваше имя" data-placeholder="129" data-placeholder-translate="Ваше имя"&gt;
+          &lt;textarea name id cols="30" rows="6" placeholder="Текст" data-placeholder="130" data-placeholder-translate="Текст"&gt;&lt;/textarea&gt;
           &lt;a href class="btn"&gt;&lt;span data-translate="92"&gt;Отправить&lt;/span&gt;&lt;/a&gt;
         &lt;/div&gt;
         &lt;br&gt;
@@ -1324,34 +1314,31 @@
           &lt;/p&gt;
         &lt;/div&gt;
         &lt;!-- comment --&gt;
-        &lt;div class="comment right"&gt;
-          &lt;div class="comment__head"&gt;&lt;img src </v>
+        &lt;div class="comment right" style="display: none;"&gt;
+          &lt;div class="c</v>
       </c>
     </row>
     <row r="7" xml:space="preserve">
       <c r="A7" t="str" xml:space="preserve">
-        <v xml:space="preserve">alt&gt;
-            &lt;p class="name"&gt;&lt;span data-translate="114"&gt;Автор: Ирина&lt;/span&gt;&lt;/p&gt;
+        <v xml:space="preserve">omment__head"&gt;&lt;img src alt&gt;
           &lt;/div&gt;
-          &lt;p&gt;&lt;span data-translate="115"&gt;Принимала таблетки 10 дней, вес стал уходить, а когда отменила прием, то опять стала поправляться. Почему?
-          &lt;/span&gt;&lt;/p&gt;
         &lt;/div&gt;
         &lt;!-- comment --&gt;
         &lt;div class="comment"&gt;
           &lt;div class="comment__head"&gt;&lt;img src alt&gt;
-            &lt;p class="name"&gt;&lt;span data-translate="116"&gt;Автор: Никита&lt;/span&gt;&lt;/p&gt;
+            &lt;p class="name"&gt;&lt;span data-translate="114"&gt;Автор: Никита&lt;/span&gt;&lt;/p&gt;
           &lt;/div&gt;
-          &lt;p&gt;&lt;span data-translate="117"&gt;Если это панацея, то почему все вокруг с лишним весом?
+          &lt;p&gt;&lt;span data-translate="115"&gt;Если это панацея, то почему все вокруг с лишним весом?
           &lt;/span&gt;&lt;/p&gt;
         &lt;/div&gt;
         &lt;!-- comment --&gt;
         &lt;div class="comment right"&gt;
           &lt;div class="comment__head"&gt;&lt;img src alt&gt;
-            &lt;p class="name"&gt;&lt;span data-translate="118"&gt;Автор: Администратор&lt;/span&gt;&lt;/p&gt;
+            &lt;p class="name"&gt;&lt;span data-translate="116"&gt;Автор: Администратор&lt;/span&gt;&lt;/p&gt;
           &lt;/div&gt;
-          &lt;p&gt;&lt;span data-translate="119"&gt;Добрый день, Никита. Присмотритесь внимательнее - людей с нормальным весом больше. А те, кто имел лишний
-            вес, после приема таблеток &lt;/span&gt;&lt;a href&gt;&lt;span data-translate="120"&gt;Slimjet&lt;/span&gt;&lt;/a&gt;&lt;span data-translate="121"&gt;пополнили их ряды. Но лучшее лекарство от сомнений -
-            попробовать на своем опыте прием таблеток &lt;/span&gt;&lt;a href&gt;&lt;span data-translate="122"&gt;Slimjet.&lt;/span&gt;&lt;/a&gt;
+          &lt;p&gt;&lt;span data-translate="117"&gt;Добрый день, Никита. Присмотритесь внимательнее - людей с нормальным весом больше. А те, кто имел лишний
+            вес, после приема таблеток &lt;/span&gt;&lt;a href&gt;&lt;span data-translate="118"&gt;Slimjet&lt;/span&gt;&lt;/a&gt;&lt;span data-translate="119"&gt;пополнили их ряды. Но лучшее лекарство от сомнений -
+            попробовать на своем опыте прием таблеток &lt;/span&gt;&lt;a href&gt;&lt;span data-translate="120"&gt;Slimjet.&lt;/span&gt;&lt;/a&gt;
           &lt;/p&gt;
         &lt;/div&gt;
       &lt;/div&gt;
@@ -1359,21 +1346,21 @@
     &lt;div class="sidebar"&gt;
       &lt;div class="sidebar__poster"&gt;
         &lt;img src="img/side1.png" alt&gt;
-        &lt;a href&gt;&lt;span data-translate="123"&gt;Не можешь похудеть?&lt;/span&gt;&lt;/a&gt;
+        &lt;a href&gt;&lt;span data-translate="121"&gt;Не можешь похудеть?&lt;/span&gt;&lt;/a&gt;
       &lt;/div&gt;
       &lt;div class="sidebar__recommendation"&gt;
-        &lt;h3&gt;&lt;span data-translate="124"&gt;Рекомендовано&lt;/span&gt;&lt;/h3&gt;
+        &lt;h3&gt;&lt;span data-translate="122"&gt;Рекомендовано&lt;/span&gt;&lt;/h3&gt;
         &lt;img src="img/rec1.png" alt&gt;
-        &lt;a href&gt;&lt;span data-translate="125"&gt;13 актеров, которых даже преданные фанаты могли не узнать в их первых фильмах&lt;/span&gt;&lt;/a&gt;
-        &lt;span&gt;&lt;span data-translate="126"&gt;1 час назад&lt;/span&gt;&lt;/span&gt;
+        &lt;a href&gt;&lt;span data-translate="123"&gt;13 актеров, которых даже преданные фанаты могли не узнать в их первых фильмах&lt;/span&gt;&lt;/a&gt;
+        &lt;span&gt;&lt;span data-translate="124"&gt;1 час назад&lt;/span&gt;&lt;/span&gt;
         &lt;br&gt;&lt;br&gt;&lt;br&gt;
         &lt;img src="img/rec2.png" alt&gt;
-        &lt;a href&gt;&lt;span data-translate="127"&gt;Люди рассказали о том, какие странные бытовые заморочки им прививали с самого детства&lt;/span&gt;&lt;/a&gt;
-        &lt;span&gt;&lt;span data-translate="128"&gt;10 минут назад&lt;/span&gt;&lt;/span&gt;
+        &lt;a href&gt;&lt;span data-translate="125"&gt;Люди рассказали о том, какие странные бытовые заморочки им прививали с самого детства&lt;/span&gt;&lt;/a&gt;
+        &lt;span&gt;&lt;span data-translate="126"&gt;10 минут назад&lt;/span&gt;&lt;/span&gt;
         &lt;br&gt;&lt;br&gt;&lt;b&gt;&lt;/b&gt;
         &lt;img src="img/rec3.png" alt&gt;
-        &lt;a href&gt;&lt;span data-translate="129"&gt;12 психологических триллеров, которые нельзя ни забыть, ни пропустить&lt;/span&gt;&lt;/a&gt;
-        &lt;span&gt;&lt;span data-translate="130"&gt;50 минут назад&lt;/span&gt;&lt;/span&gt;
+        &lt;a href&gt;&lt;span data-translate="127"&gt;12 психологических триллеров, которые нельзя ни забыть, ни пропустить&lt;/span&gt;&lt;/a&gt;
+        &lt;span&gt;&lt;span data-translate="128"&gt;50 минут назад&lt;/span&gt;&lt;/span&gt;
       &lt;/div&gt;
     &lt;/div&gt;
   &lt;/main&gt;
